--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns/module1.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8247_Conditions_Actions_Returns/module1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\EPBDS-8247_Conditions_Actions_Returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0973FBE9-35A8-4A5E-94FE-0A9B2854A6A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A400F8-E2BD-483C-A06E-6928F7D90C4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="4365" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="2235" windowWidth="31875" windowHeight="17670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="6" r:id="rId1"/>
@@ -365,65 +365,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -431,25 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F354967-CCBB-4C8D-AC6A-190478DBA6AE}">
   <dimension ref="C3:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -838,15 +838,15 @@
   <sheetData>
     <row r="3" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
       <c r="M4" s="5" t="s">
         <v>33</v>
       </c>
@@ -887,28 +887,28 @@
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
+      <c r="D6" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="M6" s="30" t="s">
+      <c r="I6" s="31"/>
+      <c r="M6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="41" t="s">
+      <c r="N6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="31" t="s">
         <v>0</v>
       </c>
     </row>
@@ -916,41 +916,41 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="D8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="M8" s="30" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="M8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="41"/>
-      <c r="P8" s="42" t="s">
+      <c r="O8" s="30"/>
+      <c r="P8" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -958,159 +958,159 @@
       <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="42"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="M10" s="30" t="s">
+      <c r="I10" s="38"/>
+      <c r="M10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="42"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="46"/>
+      <c r="I11" s="31"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35" t="s">
+      <c r="D15" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35" t="s">
+      <c r="D17" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="M18" s="5" t="s">
         <v>39</v>
       </c>
@@ -1122,18 +1122,18 @@
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="41" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="42"/>
+      <c r="I19" s="31"/>
       <c r="M19" s="14" t="s">
         <v>7</v>
       </c>
@@ -1151,24 +1151,24 @@
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="M20" s="47" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="M20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="42" t="s">
+      <c r="P20" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1176,43 +1176,43 @@
       <c r="C21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35" t="s">
+      <c r="D21" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="M22" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="42" t="s">
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="M22" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="31" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1220,34 +1220,34 @@
       <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="43"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41" t="s">
+      <c r="N24" s="30"/>
+      <c r="O24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="42"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M25" s="48"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="35"/>
     </row>
     <row r="29" spans="3:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
@@ -1262,93 +1262,102 @@
       <c r="M31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="N31" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="O31" s="29"/>
+      <c r="O31" s="44"/>
       <c r="P31" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="M32" s="30" t="s">
+      <c r="M32" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="29" t="s">
+      <c r="N32" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="P32" s="45" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M33" s="30"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="31"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M34" s="30" t="s">
+      <c r="M34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="O34" s="29" t="s">
+      <c r="O34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="31" t="s">
+      <c r="P34" s="45" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M35" s="30"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="31"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="45"/>
     </row>
     <row r="36" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="N36" s="29" t="s">
+      <c r="N36" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="31"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="13:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M37" s="32"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="34"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="40" spans="13:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H6:I9"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
@@ -1365,34 +1374,25 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="H11:I18"/>
     <mergeCell ref="F15:G16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H6:I9"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C529D-8F6D-4385-8ECE-0B2A69A63EA5}">
   <dimension ref="B3:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1439,25 +1439,25 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="L5" s="53" t="s">
+      <c r="H5" s="54"/>
+      <c r="L5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="54"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="22" t="s">
         <v>5</v>
       </c>
@@ -1471,149 +1471,149 @@
       <c r="R5" s="19"/>
     </row>
     <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="L6" s="47" t="s">
+      <c r="H6" s="54"/>
+      <c r="L6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="41"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41" t="s">
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="42"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="L7" s="47" t="s">
+      <c r="H7" s="54"/>
+      <c r="L7" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="41"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="L8" s="47" t="s">
+      <c r="H8" s="54"/>
+      <c r="L8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="41"/>
+      <c r="M8" s="30"/>
       <c r="N8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="41" t="s">
+      <c r="O8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="42"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
+      <c r="B9" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="42" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="43"/>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="41"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45" t="s">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="46"/>
+      <c r="R10" s="35"/>
     </row>
     <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
     </row>
     <row r="17" spans="12:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="35"/>
+      <c r="N17" s="37"/>
       <c r="O17" t="s">
         <v>43</v>
       </c>
@@ -1625,91 +1625,92 @@
       <c r="L18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35" t="s">
+      <c r="M18" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="44" t="s">
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L19" s="27"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="44"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="44" t="s">
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L21" s="27"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="44"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="44" t="s">
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.2">
       <c r="L23" s="27"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="44"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="12:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="28"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
       <c r="Q24" s="43"/>
     </row>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="M20:P21"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L5:M5"/>
@@ -1721,16 +1722,15 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
